--- a/medicine/Maladies infectieuses/Virus_de_l'encéphalite_équine_vénézuélienne/Virus_de_l'encéphalite_équine_vénézuélienne.xlsx
+++ b/medicine/Maladies infectieuses/Virus_de_l'encéphalite_équine_vénézuélienne/Virus_de_l'encéphalite_équine_vénézuélienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_de_l%27enc%C3%A9phalite_%C3%A9quine_v%C3%A9n%C3%A9zu%C3%A9lienne</t>
+          <t>Virus_de_l'encéphalite_équine_vénézuélienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Venezuelan equine encephalitis virus
 Le virus de l'encéphalite équine vénézuélienne, Venezuelan equine encephalitis virus, est un agent pathogène d'origine virale transmis par les moustiques et qui provoque l’encéphalite équine vénézuélienne ou encéphalomyélite. Le virus peut affecter toutes les espèces équines, telles que les chevaux, les ânes et les zèbres. Après l'infection, les équidés peuvent mourir subitement ou présenter des troubles du système nerveux central  d’évolution progressive. Les humains peuvent aussi contracter cette maladie. Les adultes en bonne santé qui contractent l'infection par le virus peuvent présenter des symptômes grippaux, tels qu’une forte fièvre et des maux de tête. Les personnes dont le système immunitaire est affaibli, les jeunes enfants et les personnes âgées peuvent tomber gravement malades ou mourir de cette maladie.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Virus_de_l%27enc%C3%A9phalite_%C3%A9quine_v%C3%A9n%C3%A9zu%C3%A9lienne</t>
+          <t>Virus_de_l'encéphalite_équine_vénézuélienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Sous-types du virus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des tests sérologiques effectués sur ce virus  ont montré la présence de six sous-types différents (classé de I à VI). Ceux-ci ont reçu des noms de sous-types, comme Mucambo, Tonate et Pixuna. Il existe sept variantes différentes à l’intérieur du sous-type I, et trois de ces variantes, A, B et C sont des souches épizootiques.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Virus_de_l%27enc%C3%A9phalite_%C3%A9quine_v%C3%A9n%C3%A9zu%C3%A9lienne</t>
+          <t>Virus_de_l'encéphalite_équine_vénézuélienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Epidémies du virus de l’encéphalite équine vénézuélienne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des foyers du virus de l'encéphalite équine du Venezuela se sont déclarés en Amérique centrale et dans les pays sud-américains. Ce virus a été isolé en 1938, et des flambées ont été signalées dans de nombreux pays depuis lors. Le Mexique, la Colombie, le Venezuela et les États-Unis sont quelques-uns des pays qui ont signalé des flambées épidémiques. 
 Entre décembre 1992 et janvier 1993, l'État vénézuélien de Trujillo a connu une épidémie provoquée par ce virus. Au total, 28 cas de maladie ont été signalés dont 12 ont entrainé le décès. 
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Virus_de_l%27enc%C3%A9phalite_%C3%A9quine_v%C3%A9n%C3%A9zu%C3%A9lienne</t>
+          <t>Virus_de_l'encéphalite_équine_vénézuélienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Utilisation comme arme biologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque le programme américain d’armes biologiques a pris fin en 1969 ce virus était l'un des sept qui avait été utilisé pour élaborer des armes biologiques produites industriellement[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque le programme américain d’armes biologiques a pris fin en 1969 ce virus était l'un des sept qui avait été utilisé pour élaborer des armes biologiques produites industriellement. 
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Virus_de_l%27enc%C3%A9phalite_%C3%A9quine_v%C3%A9n%C3%A9zu%C3%A9lienne</t>
+          <t>Virus_de_l'encéphalite_équine_vénézuélienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Informations récentes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En avril 2009, le US Army Medical Research Institute of Infectious Diseases, à Fort Detrick a signalé que l’on avait constaté la disparition d’échantillons du virus de l'encéphalite équine du Venezuela au cours de l'inventaire d'échantillons stockés par un centre de recherche. Il a également été signalé que les échantillons étaient probablement parmi ceux qui avaient été détruit à la suite du dysfonctionnement d’un congélateur.
 </t>
